--- a/data/mach8_SST_CM.xlsx
+++ b/data/mach8_SST_CM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cranfield-my.sharepoint.com/personal/e_carias_cranfield_ac_uk/Documents/Documents/PhD/Missile/Sim/mach8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\s301312\Documents\p_programs\exp_post\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_FA5F7084AA9EE558AB0C4FA38D8B003BB4335AD4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B0D2194-1101-416C-94A0-E59F9304175E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6248F009-9922-4A57-9F3A-8BBB82D53A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="17520" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="1410" windowWidth="17520" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fin" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -429,37 +431,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.6869361768828901E-2</v>
+        <v>-1.2724807332469799E-2</v>
       </c>
       <c r="C2">
-        <v>2.10311175490034E-2</v>
+        <v>-1.0042500600532399E-2</v>
       </c>
       <c r="D2">
-        <v>1.49743514285011E-2</v>
+        <v>-7.1917297888942997E-3</v>
       </c>
       <c r="E2">
-        <v>9.6247189079650998E-3</v>
+        <v>-4.6324040203769004E-3</v>
       </c>
       <c r="F2">
-        <v>4.6930885071591001E-3</v>
+        <v>-2.1980627936207002E-3</v>
       </c>
       <c r="G2">
-        <v>8.8100916401053098E-6</v>
+        <v>-1.9938483835615792E-6</v>
       </c>
       <c r="H2">
-        <v>-4.6930885071591001E-3</v>
+        <v>2.1980627936207002E-3</v>
       </c>
       <c r="I2">
-        <v>-9.6247189079650998E-3</v>
+        <v>4.6324040203769004E-3</v>
       </c>
       <c r="J2">
-        <v>-1.49743514285011E-2</v>
+        <v>7.1917297888942997E-3</v>
       </c>
       <c r="K2">
-        <v>-2.10311175490034E-2</v>
+        <v>1.0042500600532399E-2</v>
       </c>
       <c r="L2">
-        <v>-2.6869361768828901E-2</v>
+        <v>1.2724807332469799E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -467,37 +469,37 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>4.2882100445929203E-2</v>
+        <v>0.15061810831394959</v>
       </c>
       <c r="C3">
-        <v>3.8316217990241597E-2</v>
+        <v>0.15373275322148061</v>
       </c>
       <c r="D3">
-        <v>3.3584757407362699E-2</v>
+        <v>0.1570703424454194</v>
       </c>
       <c r="E3">
-        <v>2.9028831399307099E-2</v>
+        <v>0.1604745439652448</v>
       </c>
       <c r="F3">
-        <v>2.4568791094514101E-2</v>
+        <v>0.16326423166881129</v>
       </c>
       <c r="G3">
-        <v>1.97337699052006E-2</v>
+        <v>0.16624611658666491</v>
       </c>
       <c r="H3">
-        <v>1.4307722280347299E-2</v>
+        <v>0.16818081123265999</v>
       </c>
       <c r="I3">
-        <v>8.0790643820544007E-3</v>
+        <v>0.1701488641507804</v>
       </c>
       <c r="J3">
-        <v>1.2457970523613001E-3</v>
+        <v>0.17233592425568239</v>
       </c>
       <c r="K3">
-        <v>-6.3747675212628002E-3</v>
+        <v>0.17502261374675751</v>
       </c>
       <c r="L3">
-        <v>-1.32461611653767E-2</v>
+        <v>0.17686229608790599</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -505,37 +507,37 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>5.8549494269558799E-2</v>
+        <v>0.31388859797668262</v>
       </c>
       <c r="C4">
-        <v>5.51600897689037E-2</v>
+        <v>0.31766254984769571</v>
       </c>
       <c r="D4">
-        <v>5.0832905622473501E-2</v>
+        <v>0.32143127148936618</v>
       </c>
       <c r="E4">
-        <v>4.6605107494521202E-2</v>
+        <v>0.32519312013739321</v>
       </c>
       <c r="F4">
-        <v>4.1930234814176799E-2</v>
+        <v>0.32907849606491107</v>
       </c>
       <c r="G4">
-        <v>3.6419549213532403E-2</v>
+        <v>0.33278754229599189</v>
       </c>
       <c r="H4">
-        <v>3.0066039631612598E-2</v>
+        <v>0.33435090175581789</v>
       </c>
       <c r="I4">
-        <v>2.2804776035308099E-2</v>
+        <v>0.33527855101658</v>
       </c>
       <c r="J4">
-        <v>1.48075936304468E-2</v>
+        <v>0.33681866121704079</v>
       </c>
       <c r="K4">
-        <v>6.0582348019957996E-3</v>
+        <v>0.338800783834865</v>
       </c>
       <c r="L4">
-        <v>-1.7348977317142001E-3</v>
+        <v>0.3396161087845021</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -543,37 +545,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>3.4741479745741301E-2</v>
+        <v>0.4895942122075318</v>
       </c>
       <c r="C5">
-        <v>7.5545481731236597E-2</v>
+        <v>0.49439475849336079</v>
       </c>
       <c r="D5">
-        <v>7.1054150147281198E-2</v>
+        <v>0.49843713765812919</v>
       </c>
       <c r="E5">
-        <v>6.6302857333192494E-2</v>
+        <v>0.50273839813965937</v>
       </c>
       <c r="F5">
-        <v>6.12231954965771E-2</v>
+        <v>0.50827181105632835</v>
       </c>
       <c r="G5">
-        <v>5.5012525148477397E-2</v>
+        <v>0.51264604236230593</v>
       </c>
       <c r="H5">
-        <v>4.7769101134074503E-2</v>
+        <v>0.51308167186429832</v>
       </c>
       <c r="I5">
-        <v>3.9406753137090397E-2</v>
+        <v>0.51397841122577548</v>
       </c>
       <c r="J5">
-        <v>3.0817332392193302E-2</v>
+        <v>0.51457999282452138</v>
       </c>
       <c r="K5">
-        <v>2.0928791929284301E-2</v>
+        <v>0.51535715221903022</v>
       </c>
       <c r="L5">
-        <v>1.35943383239757E-2</v>
+        <v>0.51531806024731108</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -581,37 +583,37 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.104003760212283</v>
+        <v>0.67923583666577125</v>
       </c>
       <c r="C6">
-        <v>9.9827000171917299E-2</v>
+        <v>0.68481543915936205</v>
       </c>
       <c r="D6">
-        <v>9.4779069938043595E-2</v>
+        <v>0.68982801009337402</v>
       </c>
       <c r="E6">
-        <v>8.9774386136591403E-2</v>
+        <v>0.69583872610024622</v>
       </c>
       <c r="F6">
-        <v>8.3857997038716506E-2</v>
+        <v>0.70194783857052578</v>
       </c>
       <c r="G6">
-        <v>7.7002845879708903E-2</v>
+        <v>0.70736629255617245</v>
       </c>
       <c r="H6">
-        <v>6.8231290191660396E-2</v>
+        <v>0.70714018105569532</v>
       </c>
       <c r="I6">
-        <v>5.9601844127292997E-2</v>
+        <v>0.70664939477500932</v>
       </c>
       <c r="J6">
-        <v>4.9105976452374897E-2</v>
+        <v>0.7062017334441808</v>
       </c>
       <c r="K6">
-        <v>3.8672546900919598E-2</v>
+        <v>0.70591065598581582</v>
       </c>
       <c r="L6">
-        <v>3.0234516844001798E-2</v>
+        <v>0.70510103599896801</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -673,43 +677,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.3425505310323301E-2</v>
+        <v>-2.5776952692561001E-3</v>
       </c>
       <c r="C2">
-        <v>1.8442615176046E-2</v>
+        <v>-2.1279253430508001E-3</v>
       </c>
       <c r="D2">
-        <v>1.39299412202141E-2</v>
+        <v>-1.5129221968345E-3</v>
       </c>
       <c r="E2">
-        <v>1.01229199615601E-2</v>
+        <v>-1.2572934111772E-3</v>
       </c>
       <c r="F2">
-        <v>7.2042359688164999E-3</v>
+        <v>-8.2985276795792561E-4</v>
       </c>
       <c r="G2">
-        <v>4.5438863403608996E-3</v>
+        <v>-5.9058827607546703E-4</v>
       </c>
       <c r="H2">
-        <v>8.8100916401053098E-6</v>
+        <v>-1.9938483835615792E-6</v>
       </c>
       <c r="I2">
-        <v>-4.5438863403608996E-3</v>
+        <v>5.9058827607546703E-4</v>
       </c>
       <c r="J2">
-        <v>-7.2042359688164999E-3</v>
+        <v>8.2985276795792561E-4</v>
       </c>
       <c r="K2">
-        <v>-1.01229199615601E-2</v>
+        <v>1.2572934111772E-3</v>
       </c>
       <c r="L2">
-        <v>-1.39299412202141E-2</v>
+        <v>1.5129221968345E-3</v>
       </c>
       <c r="M2">
-        <v>-1.8442615176046E-2</v>
+        <v>2.1279253430508001E-3</v>
       </c>
       <c r="N2">
-        <v>-2.3425505310323301E-2</v>
+        <v>2.5776952692561001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -717,43 +721,43 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3.55428902648618E-2</v>
+        <v>0.16079413479120169</v>
       </c>
       <c r="C3">
-        <v>3.2624005324702603E-2</v>
+        <v>0.1618261546216663</v>
       </c>
       <c r="D3">
-        <v>3.0336455580058E-2</v>
+        <v>0.16240829741389251</v>
       </c>
       <c r="E3">
-        <v>2.8039269118787E-2</v>
+        <v>0.16306247337002219</v>
       </c>
       <c r="F3">
-        <v>0.10503536867755719</v>
+        <v>0.1638639064834059</v>
       </c>
       <c r="G3">
-        <v>2.4148428159745002E-2</v>
+        <v>0.16465305045088879</v>
       </c>
       <c r="H3">
-        <v>1.97337699052006E-2</v>
+        <v>0.16624611658666491</v>
       </c>
       <c r="I3">
-        <v>1.30445934149184E-2</v>
+        <v>0.16596283260943029</v>
       </c>
       <c r="J3">
-        <v>9.3772582138657006E-3</v>
+        <v>0.16597369863195399</v>
       </c>
       <c r="K3">
-        <v>4.4197187149821E-3</v>
+        <v>0.16599848034169151</v>
       </c>
       <c r="L3">
-        <v>-1.2696022857605E-3</v>
+        <v>0.16591002203275459</v>
       </c>
       <c r="M3">
-        <v>-7.7346389397000004E-3</v>
+        <v>0.1663698582973335</v>
       </c>
       <c r="N3">
-        <v>-1.48601024371799E-2</v>
+        <v>0.16635715434356391</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -761,43 +765,43 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>5.0423219442170798E-2</v>
+        <v>0.32331141130260738</v>
       </c>
       <c r="C4">
-        <v>4.8726394742781003E-2</v>
+        <v>0.32468172978955578</v>
       </c>
       <c r="D4">
-        <v>4.7315698858684203E-2</v>
+        <v>0.32629504337403481</v>
       </c>
       <c r="E4">
-        <v>4.5646386027109402E-2</v>
+        <v>0.32724063855876789</v>
       </c>
       <c r="F4">
-        <v>4.3900978859848901E-2</v>
+        <v>0.32873668372974207</v>
       </c>
       <c r="G4">
-        <v>4.1967823599041297E-2</v>
+        <v>0.33003024558529148</v>
       </c>
       <c r="H4">
-        <v>3.6419549213532403E-2</v>
+        <v>0.33278754229599189</v>
       </c>
       <c r="I4">
-        <v>2.77569979183158E-2</v>
+        <v>0.33223579795026648</v>
       </c>
       <c r="J4">
-        <v>2.2659812571528801E-2</v>
+        <v>0.33134892684434331</v>
       </c>
       <c r="K4">
-        <v>1.6231622193108999E-2</v>
+        <v>0.33087888356766221</v>
       </c>
       <c r="L4">
-        <v>9.5172168042362004E-3</v>
+        <v>0.33071732439955731</v>
       </c>
       <c r="M4">
-        <v>1.8005803838633001E-3</v>
+        <v>0.3306974151126984</v>
       </c>
       <c r="N4">
-        <v>-6.2952006777263004E-3</v>
+        <v>0.3300734762196989</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -805,43 +809,43 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>7.0904850072842002E-2</v>
+        <v>0.49863746778463469</v>
       </c>
       <c r="C5">
-        <v>6.9495377360206598E-2</v>
+        <v>0.50068557294643623</v>
       </c>
       <c r="D5">
-        <v>6.83518744016752E-2</v>
+        <v>0.50313546000845333</v>
       </c>
       <c r="E5">
-        <v>6.6521592934250195E-2</v>
+        <v>0.50452773149852881</v>
       </c>
       <c r="F5">
-        <v>0.25921355183291078</v>
+        <v>0.50647759670927428</v>
       </c>
       <c r="G5">
-        <v>6.1975327928240002E-2</v>
+        <v>0.50856724588363766</v>
       </c>
       <c r="H5">
-        <v>5.5012525148477397E-2</v>
+        <v>0.51264604236230593</v>
       </c>
       <c r="I5">
-        <v>4.50945971008994E-2</v>
+        <v>0.51049464967438829</v>
       </c>
       <c r="J5">
-        <v>3.9140363687836799E-2</v>
+        <v>0.50970040369228276</v>
       </c>
       <c r="K5">
-        <v>3.1328158686854998E-2</v>
+        <v>0.50895897454088912</v>
       </c>
       <c r="L5">
-        <v>2.4014846132999101E-2</v>
+        <v>0.50811721914672203</v>
       </c>
       <c r="M5">
-        <v>1.5180934710495199E-2</v>
+        <v>0.5079289382126474</v>
       </c>
       <c r="N5">
-        <v>6.3296881991001998E-3</v>
+        <v>0.5066341506517138</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -849,43 +853,43 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>9.5499564740737203E-2</v>
+        <v>0.6881826955325564</v>
       </c>
       <c r="C6">
-        <v>9.4176843459922596E-2</v>
+        <v>0.69119747990938218</v>
       </c>
       <c r="D6">
-        <v>9.2724328494256505E-2</v>
+        <v>0.69395548538304352</v>
       </c>
       <c r="E6">
-        <v>9.0642313090220805E-2</v>
+        <v>0.69606629859573521</v>
       </c>
       <c r="F6">
-        <v>8.8025341121877404E-2</v>
+        <v>0.69678844146521668</v>
       </c>
       <c r="G6">
-        <v>8.4808095369870898E-2</v>
+        <v>0.70150327819001779</v>
       </c>
       <c r="H6">
-        <v>7.7002845879708903E-2</v>
+        <v>0.70736629255617245</v>
       </c>
       <c r="I6">
-        <v>6.5283761592738201E-2</v>
+        <v>0.70362689235238896</v>
       </c>
       <c r="J6">
-        <v>5.8587895101268599E-2</v>
+        <v>0.70245989636674</v>
       </c>
       <c r="K6">
-        <v>5.0254762148755697E-2</v>
+        <v>0.70101657575663923</v>
       </c>
       <c r="L6">
-        <v>4.1795913523422802E-2</v>
+        <v>0.69994284118616423</v>
       </c>
       <c r="M6">
-        <v>3.23292341960617E-2</v>
+        <v>0.69931803769051804</v>
       </c>
       <c r="N6">
-        <v>2.1967415185002202E-2</v>
+        <v>0.69732031523366933</v>
       </c>
     </row>
   </sheetData>
